--- a/GameData/Excel/spell.xlsx
+++ b/GameData/Excel/spell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DCF102-546C-4B99-B264-34616D59BF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F724D52-0CA3-45EF-9FB6-95ABA2CB0360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7572" yWindow="6648" windowWidth="34752" windowHeight="18456" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="9864" yWindow="5988" windowWidth="34752" windowHeight="18456" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="spell" sheetId="1" r:id="rId1"/>
@@ -609,7 +609,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -714,7 +714,9 @@
       <c r="G4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>10001</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">

--- a/GameData/Excel/spell.xlsx
+++ b/GameData/Excel/spell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F724D52-0CA3-45EF-9FB6-95ABA2CB0360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAFE722-2D59-49E4-8484-22B36AA60E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9864" yWindow="5988" windowWidth="34752" windowHeight="18456" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="6168" yWindow="7320" windowWidth="34752" windowHeight="18456" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="spell" sheetId="1" r:id="rId1"/>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주문 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,6 +168,10 @@
   </si>
   <si>
     <t>#spell_grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +609,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -625,13 +625,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
@@ -648,28 +648,28 @@
     </row>
     <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
@@ -701,18 +701,18 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1">
         <v>10001</v>
@@ -723,18 +723,18 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="1"/>
     </row>
@@ -743,18 +743,18 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -763,18 +763,18 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1"/>
     </row>

--- a/GameData/Excel/spell.xlsx
+++ b/GameData/Excel/spell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAFE722-2D59-49E4-8484-22B36AA60E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B30263-8C6F-4A68-95A8-84C140C50506}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6168" yWindow="7320" windowWidth="34752" windowHeight="18456" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="6165" yWindow="7320" windowWidth="34755" windowHeight="18450" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="spell" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
   <si>
     <t>string</t>
   </si>
@@ -137,32 +126,6 @@
     <t>img_spell_4</t>
   </si>
   <si>
-    <t>spell_name_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spell_name_2</t>
-  </si>
-  <si>
-    <t>spell_name_3</t>
-  </si>
-  <si>
-    <t>spell_name_4</t>
-  </si>
-  <si>
-    <t>spell_desc_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spell_desc_2</t>
-  </si>
-  <si>
-    <t>spell_desc_3</t>
-  </si>
-  <si>
-    <t>spell_desc_4</t>
-  </si>
-  <si>
     <t>#spell_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,6 +135,191 @@
   </si>
   <si>
     <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_name_10101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_name_10102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_name_10103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_name_10104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_desc_10101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_desc_10102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_desc_10103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_desc_10104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_name_20102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_name_20103</t>
+  </si>
+  <si>
+    <t>spell_name_20104</t>
+  </si>
+  <si>
+    <t>spell_name_20105</t>
+  </si>
+  <si>
+    <t>spell_name_20106</t>
+  </si>
+  <si>
+    <t>spell_name_20107</t>
+  </si>
+  <si>
+    <t>spell_name_20108</t>
+  </si>
+  <si>
+    <t>spell_name_20109</t>
+  </si>
+  <si>
+    <t>spell_name_20110</t>
+  </si>
+  <si>
+    <t>spell_desc_20101</t>
+  </si>
+  <si>
+    <t>spell_desc_20102</t>
+  </si>
+  <si>
+    <t>spell_desc_20103</t>
+  </si>
+  <si>
+    <t>spell_desc_20104</t>
+  </si>
+  <si>
+    <t>spell_desc_20105</t>
+  </si>
+  <si>
+    <t>spell_desc_20106</t>
+  </si>
+  <si>
+    <t>spell_desc_20107</t>
+  </si>
+  <si>
+    <t>spell_desc_20108</t>
+  </si>
+  <si>
+    <t>spell_desc_20109</t>
+  </si>
+  <si>
+    <t>spell_desc_20110</t>
+  </si>
+  <si>
+    <t>spell_name_20101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용암</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 타입 효과_지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 타입 효과</t>
+  </si>
+  <si>
+    <t>회피율 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 효과_지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행동 무효화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 해제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -309,9 +457,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -349,7 +497,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -455,7 +603,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -597,7 +745,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -605,22 +753,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="12" style="3" customWidth="1"/>
-    <col min="5" max="7" width="25" style="3" customWidth="1"/>
+    <col min="1" max="2" width="6.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="3"/>
+    <col min="9" max="9" width="20.875" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -628,10 +780,10 @@
         <v>16</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
@@ -645,8 +797,11 @@
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I1" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -671,8 +826,11 @@
       <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -693,12 +851,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>10101</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
@@ -709,18 +868,21 @@
         <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1">
         <v>10001</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>10102</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -731,16 +893,21 @@
         <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1">
+        <v>40007</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>10103</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>20</v>
@@ -751,16 +918,21 @@
         <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1">
+        <v>30006</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>10104</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -771,113 +943,271 @@
         <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="H7" s="1">
+        <v>30002</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>20101</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>20102</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="1">
+        <v>10002</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>20103</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="3">
+        <v>30004</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>20104</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="1">
+        <v>20001</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>20105</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>20106</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="1">
+        <v>40004</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>20107</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>63</v>
+      </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="1">
+        <v>20002</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>20108</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="3">
+        <v>30001</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>20109</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="3">
+        <v>30008</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>20110</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="3">
+        <v>30010</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -887,7 +1217,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -897,16 +1227,6 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameData/Excel/spell.xlsx
+++ b/GameData/Excel/spell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B30263-8C6F-4A68-95A8-84C140C50506}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBE99F6-5A1E-4E85-9F7F-B4B8953045DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="7320" windowWidth="34755" windowHeight="18450" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="735" yWindow="2955" windowWidth="16410" windowHeight="11295" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="spell" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
   <si>
     <t>string</t>
   </si>
@@ -135,10 +135,6 @@
   </si>
   <si>
     <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -457,9 +453,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -497,7 +493,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -603,7 +599,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -745,7 +741,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -757,7 +753,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -827,7 +823,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -868,16 +864,16 @@
         <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1">
         <v>10001</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -893,16 +889,16 @@
         <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1">
         <v>40007</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -918,16 +914,16 @@
         <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="1">
         <v>30006</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -943,16 +939,16 @@
         <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1">
         <v>30002</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -960,23 +956,23 @@
         <v>20101</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -984,23 +980,23 @@
         <v>20102</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" s="1">
         <v>10002</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1008,23 +1004,23 @@
         <v>20103</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="3">
         <v>30004</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1032,23 +1028,23 @@
         <v>20104</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" s="1">
         <v>20001</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1056,23 +1052,23 @@
         <v>20105</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1080,23 +1076,23 @@
         <v>20106</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" s="1">
         <v>40004</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1104,23 +1100,23 @@
         <v>20107</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="1">
         <v>20002</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1128,23 +1124,23 @@
         <v>20108</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="3">
         <v>30001</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1152,23 +1148,23 @@
         <v>20109</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" s="3">
         <v>30008</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1176,23 +1172,23 @@
         <v>20110</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" s="3">
         <v>30010</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1203,9 +1199,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>

--- a/GameData/Excel/spell.xlsx
+++ b/GameData/Excel/spell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DBE99F6-5A1E-4E85-9F7F-B4B8953045DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1ADD28-B8B1-4E4B-96F3-73F041B601A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="2955" windowWidth="16410" windowHeight="11295" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="spell" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>string</t>
   </si>
@@ -316,6 +316,14 @@
   </si>
   <si>
     <t>디버프 해제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#구현여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,11 +757,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -768,7 +776,7 @@
     <col min="10" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -796,8 +804,11 @@
       <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -826,7 +837,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -851,7 +862,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>10101</v>
       </c>
@@ -875,8 +886,11 @@
       <c r="I4" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>10102</v>
       </c>
@@ -901,7 +915,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>10103</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="I6" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>10104</v>
       </c>
@@ -950,8 +967,11 @@
       <c r="I7" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>20101</v>
       </c>
@@ -975,7 +995,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>20102</v>
       </c>
@@ -998,8 +1018,11 @@
       <c r="I9" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>20103</v>
       </c>
@@ -1023,7 +1046,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>20104</v>
       </c>
@@ -1047,7 +1070,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>20105</v>
       </c>
@@ -1071,7 +1094,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>20106</v>
       </c>
@@ -1095,7 +1118,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>20107</v>
       </c>
@@ -1119,7 +1142,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>20108</v>
       </c>
@@ -1143,7 +1166,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>20109</v>
       </c>
@@ -1224,5 +1247,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameData/Excel/spell.xlsx
+++ b/GameData/Excel/spell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1ADD28-B8B1-4E4B-96F3-73F041B601A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA096BE6-49A7-4B9A-8F37-B668BC29AA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-16320" yWindow="-12660" windowWidth="16440" windowHeight="28320" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="spell" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
   <si>
     <t>string</t>
   </si>
@@ -324,6 +324,46 @@
   </si>
   <si>
     <t>#구현여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#10102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#20102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#10104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#20108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#20109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#20110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#20106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#20105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#20103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#20101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -761,7 +801,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -891,8 +931,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>10102</v>
+      <c r="A5" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -944,8 +984,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>10104</v>
+      <c r="A7" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -972,8 +1012,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>20101</v>
+      <c r="A8" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>57</v>
@@ -996,8 +1036,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>20102</v>
+      <c r="A9" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>58</v>
@@ -1023,8 +1063,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>20103</v>
+      <c r="A10" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>59</v>
@@ -1069,10 +1109,13 @@
       <c r="I11" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="J11" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>20105</v>
+      <c r="A12" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>57</v>
@@ -1095,8 +1138,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>20106</v>
+      <c r="A13" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>61</v>
@@ -1141,10 +1184,13 @@
       <c r="I14" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="J14" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>20108</v>
+      <c r="A15" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>63</v>
@@ -1167,8 +1213,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>20109</v>
+      <c r="A16" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>64</v>
@@ -1191,8 +1237,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>20110</v>
+      <c r="A17" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>65</v>

--- a/GameData/Excel/spell.xlsx
+++ b/GameData/Excel/spell.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yerim\portfolio_Game\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA096BE6-49A7-4B9A-8F37-B668BC29AA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD28D8D9-A61C-431F-94F0-B84F0B1273DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-12660" windowWidth="16440" windowHeight="28320" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="204">
   <si>
     <t>string</t>
   </si>
@@ -232,10 +232,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>증기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,98 +268,489 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계수 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대미지 타입 효과_지속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대미지 타입 효과</t>
-  </si>
-  <si>
-    <t>회피율 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 회복 효과_지속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 회복 효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행동 무효화</t>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#구현여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#20108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불+불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불+공기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불+물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불+흙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물+물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물+공기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물+흙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공기+공기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공기+흙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흙+흙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라즈마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n턴 간 AP 가속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라즈마+불</t>
+  </si>
+  <si>
+    <t>spell_name_30101</t>
+  </si>
+  <si>
+    <t>spell_desc_30101</t>
+  </si>
+  <si>
+    <t>증기+불</t>
+  </si>
+  <si>
+    <t>spell_name_30201</t>
+  </si>
+  <si>
+    <t>spell_desc_30201</t>
+  </si>
+  <si>
+    <t>증기+물</t>
+  </si>
+  <si>
+    <t>spell_name_30202</t>
+  </si>
+  <si>
+    <t>spell_desc_30202</t>
+  </si>
+  <si>
+    <t>열+불</t>
+  </si>
+  <si>
+    <t>spell_name_30301</t>
+  </si>
+  <si>
+    <t>spell_desc_30301</t>
+  </si>
+  <si>
+    <t>열+공기</t>
+  </si>
+  <si>
+    <t>spell_name_30302</t>
+  </si>
+  <si>
+    <t>spell_desc_30302</t>
+  </si>
+  <si>
+    <t>용암+불</t>
+  </si>
+  <si>
+    <t>spell_name_30401</t>
+  </si>
+  <si>
+    <t>spell_desc_30401</t>
+  </si>
+  <si>
+    <t>용암+흙</t>
+  </si>
+  <si>
+    <t>spell_name_30402</t>
+  </si>
+  <si>
+    <t>spell_desc_30402</t>
+  </si>
+  <si>
+    <t>바다+물</t>
+  </si>
+  <si>
+    <t>spell_name_30501</t>
+  </si>
+  <si>
+    <t>spell_desc_30501</t>
+  </si>
+  <si>
+    <t>구름+물</t>
+  </si>
+  <si>
+    <t>spell_name_30601</t>
+  </si>
+  <si>
+    <t>spell_desc_30601</t>
+  </si>
+  <si>
+    <t>구름+공기</t>
+  </si>
+  <si>
+    <t>spell_name_30602</t>
+  </si>
+  <si>
+    <t>spell_desc_30602</t>
+  </si>
+  <si>
+    <t>풀+물</t>
+  </si>
+  <si>
+    <t>spell_name_30701</t>
+  </si>
+  <si>
+    <t>spell_desc_30701</t>
+  </si>
+  <si>
+    <t>풀+흙</t>
+  </si>
+  <si>
+    <t>spell_name_30702</t>
+  </si>
+  <si>
+    <t>spell_desc_30702</t>
+  </si>
+  <si>
+    <t>바람+공기</t>
+  </si>
+  <si>
+    <t>spell_name_30801</t>
+  </si>
+  <si>
+    <t>spell_desc_30801</t>
+  </si>
+  <si>
+    <t>모래+공기</t>
+  </si>
+  <si>
+    <t>spell_name_30901</t>
+  </si>
+  <si>
+    <t>spell_desc_30901</t>
+  </si>
+  <si>
+    <t>모래+흙</t>
+  </si>
+  <si>
+    <t>spell_name_30902</t>
+  </si>
+  <si>
+    <t>spell_desc_30902</t>
+  </si>
+  <si>
+    <t>바위+흙</t>
+  </si>
+  <si>
+    <t>spell_name_31001</t>
+  </si>
+  <si>
+    <t>spell_desc_31001</t>
+  </si>
+  <si>
+    <t>붉은 플라즈마</t>
+  </si>
+  <si>
+    <t>붉은 증기</t>
+  </si>
+  <si>
+    <t>푸른 증기</t>
+  </si>
+  <si>
+    <t>붉은 열</t>
+  </si>
+  <si>
+    <t>하얀 열</t>
+  </si>
+  <si>
+    <t>붉은 용암</t>
+  </si>
+  <si>
+    <t>어두운 용암</t>
+  </si>
+  <si>
+    <t>푸른 바다</t>
+  </si>
+  <si>
+    <t>푸른 구름</t>
+  </si>
+  <si>
+    <t>하얀 구름</t>
+  </si>
+  <si>
+    <t>푸른 풀</t>
+  </si>
+  <si>
+    <t>어두운 풀</t>
+  </si>
+  <si>
+    <t>하얀 바람</t>
+  </si>
+  <si>
+    <t>하얀 모래</t>
+  </si>
+  <si>
+    <t>어두운 모래</t>
+  </si>
+  <si>
+    <t>어두운 바위</t>
+  </si>
+  <si>
+    <t>방어도 감소 (-8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 타입 효과 (+5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 타입 효과 (+30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP 2 감소 (AP증가/감소 재정립 필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도 (+4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 감소 (-10) + 대미지 타입 효과 (+8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30310,10108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30308</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10108,20102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 타입 효과 (+9) + 지속 피해 (+2/3턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30603,10107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30206,10107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도 (+6) + 대미지 타입 효과 (+7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP 3 감소 + 대미지 타입 효과 (+7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 3해제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP 증가_지속 (미구현)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#20106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 효과_지속 (+3/3턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도 (+12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행동 무효화 (3턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30320,10108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 감소 (-20) + 대미지 타입 효과 (+8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30310,10115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 감소 (-10) + 대미지 타입 효과 (+15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30605,10107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP 5 감소 + 대미지 타입 효과 (+7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP 3 감소 + 대미지 타입 효과 (+15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30603,10115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도 (+6) + 대미지 타입 효과 (+15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30206,10115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도 (+12) + 대미지 타입 효과 (+7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30212,10107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 해제 (+1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 해제 (+3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#30601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#30602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20203,10205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 효과_지속 (+2/3턴) + 체력 회복 (+5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 효과_지속 (+4/3턴) + 방어도 (+6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20204,30206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도 (+25)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>기절</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드로우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프 해제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#구현여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#10102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#20102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#10104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#20108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#20109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#20110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#20106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#20105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#20103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#20101</t>
+  </si>
+  <si>
+    <t>31000</t>
+  </si>
+  <si>
+    <t>행동 무효화 (3턴) + 방어도 (+10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30803,30210</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +843,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -483,6 +870,24 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -501,9 +906,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -541,7 +946,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -647,7 +1052,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -789,7 +1194,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -797,99 +1202,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="6.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="20.875" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="3"/>
+    <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
+    <col min="4" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="16" customWidth="1"/>
+    <col min="10" max="10" width="33.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>0</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>0</v>
@@ -898,397 +1308,834 @@
         <v>0</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>10101</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="1">
-        <v>10001</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>71</v>
+      <c r="I4" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>149</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>10102</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="1">
-        <v>40007</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I5" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>10103</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="1">
-        <v>30006</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>68</v>
+      <c r="I6" s="16" t="s">
+        <v>158</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>151</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>10104</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="1">
-        <v>30002</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>69</v>
+      <c r="I7" s="16" t="s">
+        <v>155</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>152</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>20101</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>20102</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>20103</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="1">
-        <v>10002</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="3">
-        <v>30004</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I10" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>20104</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>20105</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="1">
-        <v>20001</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="C13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="1">
-        <v>40004</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I13" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>20107</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="1">
-        <v>20002</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="C15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>20109</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>20110</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>30101</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="3">
-        <v>30001</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="3">
-        <v>30008</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="3">
-        <v>30010</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>30201</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>30202</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>30301</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>30302</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>30401</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>30402</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>30501</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>30701</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>30702</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>30801</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>30901</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>30902</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>31001</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameData/Excel/spell.xlsx
+++ b/GameData/Excel/spell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD28D8D9-A61C-431F-94F0-B84F0B1273DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4D6EDE-163A-4C01-8379-06AB4C18D2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-12660" windowWidth="16440" windowHeight="28320" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="11292" yWindow="3720" windowWidth="26520" windowHeight="18276" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="spell" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="212">
   <si>
     <t>string</t>
   </si>
@@ -113,16 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>img_spell_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_spell_2</t>
-  </si>
-  <si>
-    <t>img_spell_3</t>
-  </si>
-  <si>
     <t>img_spell_4</t>
   </si>
   <si>
@@ -608,10 +598,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디버프 3해제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30403</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -751,6 +737,46 @@
   </si>
   <si>
     <t>30803,30210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_01_temp</t>
+  </si>
+  <si>
+    <t>img_spell_02_temp</t>
+  </si>
+  <si>
+    <t>img_spell_03_temp</t>
+  </si>
+  <si>
+    <t>img_spell_04_temp</t>
+  </si>
+  <si>
+    <t>img_spell_05_temp</t>
+  </si>
+  <si>
+    <t>img_spell_06_temp</t>
+  </si>
+  <si>
+    <t>img_spell_07_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_08_temp</t>
+  </si>
+  <si>
+    <t>img_spell_09_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_10_temp</t>
+  </si>
+  <si>
+    <t>img_spell_12_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_11_temp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -843,7 +869,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,12 +896,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -887,7 +907,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -906,9 +925,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -946,7 +965,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1052,7 +1071,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1194,7 +1213,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1204,25 +1223,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="6.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.8984375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
     <col min="4" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.19921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.19921875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="16" customWidth="1"/>
-    <col min="10" max="10" width="33.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.75" style="3"/>
+    <col min="9" max="9" width="12" style="14" customWidth="1"/>
+    <col min="10" max="10" width="33.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -1233,10 +1252,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>4</v>
@@ -1247,17 +1266,17 @@
       <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1265,7 +1284,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>10</v>
@@ -1282,14 +1301,14 @@
       <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1310,12 +1329,12 @@
       <c r="H3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>28</v>
+      <c r="I3" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>10101</v>
       </c>
@@ -1323,30 +1342,30 @@
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>156</v>
+        <v>30</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>10102</v>
       </c>
@@ -1354,27 +1373,27 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>157</v>
+        <v>31</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10103</v>
       </c>
@@ -1382,30 +1401,30 @@
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>158</v>
+        <v>32</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>10104</v>
       </c>
@@ -1413,728 +1432,728 @@
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>155</v>
+        <v>33</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>20101</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>161</v>
+        <v>43</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>20102</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>153</v>
+        <v>44</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>20103</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J10" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>20104</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>205</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>165</v>
+        <v>46</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>20105</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>189</v>
+        <v>47</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>185</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>20107</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>172</v>
+        <v>49</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>159</v>
+        <v>50</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>20109</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>176</v>
+        <v>51</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>172</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>20110</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>25</v>
+        <v>210</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>155</v>
+        <v>52</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>30101</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>84</v>
+      <c r="B18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>160</v>
+        <v>83</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>30201</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>30202</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="J20" s="17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>30301</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>30302</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>30401</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>30402</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>30501</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="F26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I25" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="I26" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="F27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I26" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="J26" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I27" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>30701</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>194</v>
+        <v>113</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>190</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>30702</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>197</v>
+        <v>116</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>30801</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>159</v>
+        <v>119</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>30901</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>201</v>
+        <v>122</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>197</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>30902</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>203</v>
+        <v>125</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>199</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>31001</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>198</v>
+        <v>128</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/spell.xlsx
+++ b/GameData/Excel/spell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4D6EDE-163A-4C01-8379-06AB4C18D2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E42530E-C885-4472-9D25-61F1190348A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11292" yWindow="3720" windowWidth="26520" windowHeight="18276" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="11295" yWindow="3720" windowWidth="26520" windowHeight="18270" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="spell" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="220">
   <si>
     <t>string</t>
   </si>
@@ -266,10 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#20108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조합</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -522,22 +518,10 @@
     <t>어두운 바위</t>
   </si>
   <si>
-    <t>방어도 감소 (-8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대미지 타입 효과 (+5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대미지 타입 효과 (+30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP 2 감소 (AP증가/감소 재정립 필요)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어도 (+4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -558,30 +542,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30308</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10130</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10108,20102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대미지 타입 효과 (+9) + 지속 피해 (+2/3턴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30603,10107</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -594,10 +562,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AP 3 감소 + 대미지 타입 효과 (+7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30403</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -610,10 +574,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#20106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20203</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -622,18 +582,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어도 (+12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행동 무효화 (3턴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30803</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30320,10108</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -654,14 +602,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AP 5 감소 + 대미지 타입 효과 (+7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP 3 감소 + 대미지 타입 효과 (+15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30603,10115</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -718,14 +658,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어도 (+25)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기절</t>
   </si>
   <si>
@@ -777,6 +709,106 @@
   </si>
   <si>
     <t>img_spell_11_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자신 AP 3감소 or 적 AP 3증가) + 대미지 타입 효과 (+7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30605</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 AP 5감소 or 적 AP 5증가 → 추후 30803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자신 AP 1감소 or 적 AP 1증가) * 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30601,30601,30601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 AP 1감소 or 적 AP 1증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도 감소 (-7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#20105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30310,30602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도 감소 (-10) + (자신 AP 2감소 or 적 AP 2증가) → 추후 40800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자신 AP 3감소 or 적 AP 3증가) + 대미지 타입 효과 (+15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자신 AP 5감소 or 적 AP 5증가) + 대미지 타입 효과 (+7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#30501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#30901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#30801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#30902</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 타입 효과 (+8) + 지속 피해 (+2/3턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도 (+20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 타입 효과 (+25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도 (+10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30210</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -925,9 +957,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -965,7 +997,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1071,7 +1103,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1213,7 +1245,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1225,23 +1257,23 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="6.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
     <col min="4" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.19921875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="14" customWidth="1"/>
-    <col min="10" max="10" width="33.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.69921875" style="3"/>
+    <col min="10" max="10" width="33.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -1276,7 +1308,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1284,7 +1316,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>10</v>
@@ -1308,7 +1340,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1334,7 +1366,7 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>10101</v>
       </c>
@@ -1342,12 +1374,12 @@
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>26</v>
@@ -1356,16 +1388,16 @@
         <v>30</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>10102</v>
       </c>
@@ -1373,12 +1405,12 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>27</v>
@@ -1387,13 +1419,13 @@
         <v>31</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>10103</v>
       </c>
@@ -1401,12 +1433,12 @@
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>28</v>
@@ -1415,16 +1447,16 @@
         <v>32</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>155</v>
+        <v>201</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>10104</v>
       </c>
@@ -1432,12 +1464,12 @@
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>29</v>
@@ -1446,28 +1478,28 @@
         <v>33</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>20101</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>53</v>
@@ -1476,13 +1508,13 @@
         <v>43</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>20102</v>
       </c>
@@ -1490,11 +1522,11 @@
         <v>54</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>34</v>
@@ -1503,16 +1535,16 @@
         <v>44</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>20103</v>
       </c>
@@ -1520,11 +1552,11 @@
         <v>55</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>35</v>
@@ -1533,13 +1565,13 @@
         <v>45</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>20104</v>
       </c>
@@ -1547,11 +1579,11 @@
         <v>56</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>36</v>
@@ -1560,28 +1592,28 @@
         <v>46</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>20105</v>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>37</v>
@@ -1590,21 +1622,21 @@
         <v>47</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>20106</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
@@ -1617,13 +1649,13 @@
         <v>48</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>20107</v>
       </c>
@@ -1631,11 +1663,11 @@
         <v>58</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>39</v>
@@ -1644,24 +1676,24 @@
         <v>49</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>65</v>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>20108</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
@@ -1674,13 +1706,13 @@
         <v>50</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>20109</v>
       </c>
@@ -1688,11 +1720,11 @@
         <v>60</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>41</v>
@@ -1701,13 +1733,13 @@
         <v>51</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>20110</v>
       </c>
@@ -1715,11 +1747,11 @@
         <v>61</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>42</v>
@@ -1728,21 +1760,21 @@
         <v>52</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>30101</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1750,27 +1782,27 @@
         <v>22</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="I18" s="13" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>30201</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1778,27 +1810,27 @@
         <v>22</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="I19" s="13" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>30202</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1806,354 +1838,354 @@
         <v>22</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="I20" s="13" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>30301</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="I21" s="14" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>30302</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="I22" s="14" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>30401</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="I23" s="14" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>30402</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="3">
-        <v>30501</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G26" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="I26" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="I27" s="13" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>30701</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="I28" s="13" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>30702</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="I29" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="3">
-        <v>30801</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G30" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="3">
-        <v>30901</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G31" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="3">
-        <v>30902</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="I32" s="14" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>31001</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G33" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="I33" s="14" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/spell.xlsx
+++ b/GameData/Excel/spell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E42530E-C885-4472-9D25-61F1190348A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABA68B2-7FDE-484F-93A2-72D85506282F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11295" yWindow="3720" windowWidth="26520" windowHeight="18270" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -550,10 +550,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30603,10107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30206,10107</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -712,26 +708,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(자신 AP 3감소 or 적 AP 3증가) + 대미지 타입 효과 (+7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30605</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신 AP 5감소 or 적 AP 5증가 → 추후 30803</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(자신 AP 1감소 or 적 AP 1증가) * 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30601,30601,30601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자신 AP 1감소 or 적 AP 1증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -809,6 +785,30 @@
   </si>
   <si>
     <t>30210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신 AP 3감소 or 적 AP 3증가 → 추후 30803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30601,30601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자신 AP 1감소 or 적 AP 1증가) * 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30602,10107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자신 AP 2감소 or 적 AP 2증가) + 대미지 타입 효과 (+7)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1257,7 +1257,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1379,7 +1379,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>26</v>
@@ -1410,7 +1410,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>27</v>
@@ -1419,10 +1419,10 @@
         <v>31</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1438,7 +1438,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>28</v>
@@ -1447,10 +1447,10 @@
         <v>32</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>63</v>
@@ -1469,7 +1469,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>29</v>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>53</v>
@@ -1511,7 +1511,7 @@
         <v>151</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>34</v>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>35</v>
@@ -1565,10 +1565,10 @@
         <v>45</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>36</v>
@@ -1592,10 +1592,10 @@
         <v>46</v>
       </c>
       <c r="I11" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>63</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>78</v>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>37</v>
@@ -1622,10 +1622,10 @@
         <v>47</v>
       </c>
       <c r="I12" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1649,10 +1649,10 @@
         <v>48</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>39</v>
@@ -1676,10 +1676,10 @@
         <v>49</v>
       </c>
       <c r="I14" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>63</v>
@@ -1706,10 +1706,10 @@
         <v>50</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>41</v>
@@ -1733,10 +1733,10 @@
         <v>51</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>42</v>
@@ -1760,10 +1760,10 @@
         <v>52</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1788,10 +1788,10 @@
         <v>82</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1816,10 +1816,10 @@
         <v>85</v>
       </c>
       <c r="I19" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1844,10 +1844,10 @@
         <v>88</v>
       </c>
       <c r="I20" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1870,10 +1870,10 @@
         <v>91</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1896,10 +1896,10 @@
         <v>94</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1922,10 +1922,10 @@
         <v>97</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1948,15 +1948,15 @@
         <v>100</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>135</v>
@@ -1974,15 +1974,15 @@
         <v>103</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>136</v>
@@ -2000,15 +2000,15 @@
         <v>106</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>137</v>
@@ -2026,10 +2026,10 @@
         <v>109</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2052,10 +2052,10 @@
         <v>112</v>
       </c>
       <c r="I28" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -2078,15 +2078,15 @@
         <v>115</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>140</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>141</v>
@@ -2130,15 +2130,15 @@
         <v>121</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>142</v>
@@ -2156,10 +2156,10 @@
         <v>124</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -2182,10 +2182,10 @@
         <v>127</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/spell.xlsx
+++ b/GameData/Excel/spell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABA68B2-7FDE-484F-93A2-72D85506282F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7735A7-D7AC-4203-ADCC-FF1CC32EE491}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11295" yWindow="3720" windowWidth="26520" windowHeight="18270" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="232">
   <si>
     <t>string</t>
   </si>
@@ -113,9 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>img_spell_4</t>
-  </si>
-  <si>
     <t>#spell_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -792,23 +789,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>30601,30601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자신 AP 1감소 or 적 AP 1증가) * 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30602,10107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자신 AP 2감소 or 적 AP 2증가) + 대미지 타입 효과 (+7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>자신 AP 3감소 or 적 AP 3증가 → 추후 30803</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30601,30601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(자신 AP 1감소 or 적 AP 1증가) * 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30602,10107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(자신 AP 2감소 or 적 AP 2증가) + 대미지 타입 효과 (+7)</t>
+    <t>img_spell_13_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_14_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_15_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_16_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_17_temp</t>
+  </si>
+  <si>
+    <t>img_spell_18_temp</t>
+  </si>
+  <si>
+    <t>img_spell_19_temp</t>
+  </si>
+  <si>
+    <t>img_spell_20_temp</t>
+  </si>
+  <si>
+    <t>img_spell_24_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_04_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_21_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_22_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_23_temp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1257,7 +1302,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1284,10 +1329,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>4</v>
@@ -1305,7 +1350,7 @@
         <v>16</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1316,7 +1361,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>10</v>
@@ -1337,7 +1382,7 @@
         <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -1362,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" s="4"/>
     </row>
@@ -1374,27 +1419,27 @@
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1405,24 +1450,24 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1433,27 +1478,27 @@
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1464,27 +1509,27 @@
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1492,26 +1537,26 @@
         <v>20101</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1519,29 +1564,29 @@
         <v>20102</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1549,26 +1594,26 @@
         <v>20103</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1576,56 +1621,56 @@
         <v>20104</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="K11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1633,26 +1678,26 @@
         <v>20106</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1660,29 +1705,29 @@
         <v>20107</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="K14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1690,26 +1735,26 @@
         <v>20108</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>22</v>
+        <v>227</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1717,20 +1762,20 @@
         <v>20109</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>214</v>
@@ -1744,26 +1789,26 @@
         <v>20110</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1771,27 +1816,27 @@
         <v>30101</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="I18" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1799,27 +1844,27 @@
         <v>30201</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="I19" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1827,27 +1872,27 @@
         <v>30202</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="I20" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1855,25 +1900,25 @@
         <v>30301</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="I21" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1881,155 +1926,155 @@
         <v>30302</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="I22" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>30401</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="I23" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>30402</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I24" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="F25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="I25" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="I26" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="I27" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2037,25 +2082,25 @@
         <v>30701</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="I28" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -2063,129 +2108,129 @@
         <v>30702</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="F30" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="F32" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>31001</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="I33" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/spell.xlsx
+++ b/GameData/Excel/spell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7735A7-D7AC-4203-ADCC-FF1CC32EE491}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1D0B87-2647-4150-B5E8-68FDB1FB9895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11295" yWindow="3720" windowWidth="26520" windowHeight="18270" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -591,14 +591,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30605,10107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30603,10115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어도 (+6) + 대미지 타입 효과 (+15)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -709,10 +701,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어도 감소 (-7)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -785,22 +773,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30601,30601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(자신 AP 1감소 or 적 AP 1증가) * 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30602,10107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(자신 AP 2감소 or 적 AP 2증가) + 대미지 타입 효과 (+7)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -854,6 +830,30 @@
   </si>
   <si>
     <t>img_spell_23_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30601,30701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30602,30702,10107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30603,30703</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30601,30601,30701,30701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30603,30703,10115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30605,30705,10107</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1302,7 +1302,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1424,7 +1424,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>25</v>
@@ -1455,7 +1455,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>26</v>
@@ -1464,10 +1464,10 @@
         <v>30</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1483,7 +1483,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>27</v>
@@ -1492,10 +1492,10 @@
         <v>31</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>62</v>
@@ -1514,7 +1514,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>28</v>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>52</v>
@@ -1556,7 +1556,7 @@
         <v>150</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>33</v>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>34</v>
@@ -1610,10 +1610,10 @@
         <v>44</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>35</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>77</v>
@@ -1658,7 +1658,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>36</v>
@@ -1667,10 +1667,10 @@
         <v>46</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>37</v>
@@ -1694,10 +1694,10 @@
         <v>47</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>38</v>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>39</v>
@@ -1751,10 +1751,10 @@
         <v>49</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>40</v>
@@ -1778,10 +1778,10 @@
         <v>50</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>41</v>
@@ -1805,10 +1805,10 @@
         <v>51</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1824,7 +1824,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>80</v>
@@ -1833,10 +1833,10 @@
         <v>81</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1852,7 +1852,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>83</v>
@@ -1880,7 +1880,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>86</v>
@@ -1906,7 +1906,7 @@
         <v>88</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>89</v>
@@ -1915,10 +1915,10 @@
         <v>90</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1932,7 +1932,7 @@
         <v>91</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>92</v>
@@ -1941,10 +1941,10 @@
         <v>93</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>162</v>
+        <v>231</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1958,7 +1958,7 @@
         <v>94</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>95</v>
@@ -1967,10 +1967,10 @@
         <v>96</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1984,7 +1984,7 @@
         <v>97</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>98</v>
@@ -1993,15 +1993,15 @@
         <v>99</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>134</v>
@@ -2010,7 +2010,7 @@
         <v>100</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>101</v>
@@ -2022,12 +2022,12 @@
         <v>153</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>135</v>
@@ -2036,7 +2036,7 @@
         <v>103</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>104</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>136</v>
@@ -2062,7 +2062,7 @@
         <v>106</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>107</v>
@@ -2088,7 +2088,7 @@
         <v>109</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>110</v>
@@ -2097,10 +2097,10 @@
         <v>111</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -2114,7 +2114,7 @@
         <v>112</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>113</v>
@@ -2123,15 +2123,15 @@
         <v>114</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>139</v>
@@ -2140,7 +2140,7 @@
         <v>115</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>116</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>140</v>
@@ -2166,7 +2166,7 @@
         <v>118</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>119</v>
@@ -2175,15 +2175,15 @@
         <v>120</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>141</v>
@@ -2192,7 +2192,7 @@
         <v>121</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>122</v>
@@ -2201,10 +2201,10 @@
         <v>123</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -2218,7 +2218,7 @@
         <v>124</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>125</v>
@@ -2227,10 +2227,10 @@
         <v>126</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/spell.xlsx
+++ b/GameData/Excel/spell.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1D0B87-2647-4150-B5E8-68FDB1FB9895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247C5DD6-3304-4FC8-9FBC-227401B4D52D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11295" yWindow="3720" windowWidth="26520" windowHeight="18270" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -713,10 +713,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30310,30602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어도 감소 (-10) + (자신 AP 2감소 or 적 AP 2증가) → 추후 40800</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -854,6 +850,10 @@
   </si>
   <si>
     <t>30605,30705,10107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30310,30602,30702</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1302,7 +1302,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1492,7 +1492,7 @@
         <v>31</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>191</v>
@@ -1556,7 +1556,7 @@
         <v>150</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1610,10 +1610,10 @@
         <v>44</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>37</v>
@@ -1694,10 +1694,10 @@
         <v>47</v>
       </c>
       <c r="I13" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>39</v>
@@ -1751,10 +1751,10 @@
         <v>49</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1778,10 +1778,10 @@
         <v>50</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1805,10 +1805,10 @@
         <v>51</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1824,7 +1824,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>80</v>
@@ -1833,10 +1833,10 @@
         <v>81</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1852,7 +1852,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>83</v>
@@ -1880,7 +1880,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>86</v>
@@ -1906,7 +1906,7 @@
         <v>88</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>89</v>
@@ -1915,10 +1915,10 @@
         <v>90</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1932,7 +1932,7 @@
         <v>91</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>92</v>
@@ -1941,10 +1941,10 @@
         <v>93</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1958,7 +1958,7 @@
         <v>94</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>95</v>
@@ -1984,7 +1984,7 @@
         <v>97</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>98</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>134</v>
@@ -2010,7 +2010,7 @@
         <v>100</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>101</v>
@@ -2036,7 +2036,7 @@
         <v>103</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>104</v>
@@ -2062,7 +2062,7 @@
         <v>106</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>107</v>
@@ -2088,7 +2088,7 @@
         <v>109</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>110</v>
@@ -2114,7 +2114,7 @@
         <v>112</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>113</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>139</v>
@@ -2140,7 +2140,7 @@
         <v>115</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>116</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>140</v>
@@ -2166,7 +2166,7 @@
         <v>118</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>119</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>141</v>
@@ -2192,7 +2192,7 @@
         <v>121</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>122</v>
@@ -2218,7 +2218,7 @@
         <v>124</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>125</v>
@@ -2227,10 +2227,10 @@
         <v>126</v>
       </c>
       <c r="I33" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/spell.xlsx
+++ b/GameData/Excel/spell.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247C5DD6-3304-4FC8-9FBC-227401B4D52D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A73B5B-1C1E-4E6F-A29C-A65963DAA5D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11295" yWindow="3720" windowWidth="26520" windowHeight="18270" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="225">
   <si>
     <t>string</t>
   </si>
@@ -223,7 +223,358 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>열</t>
+    <t>바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#구현여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불+불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불+공기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불+물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불+흙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물+물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물+공기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물+흙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공기+공기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공기+흙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흙+흙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_name_30101</t>
+  </si>
+  <si>
+    <t>spell_desc_30101</t>
+  </si>
+  <si>
+    <t>spell_name_30201</t>
+  </si>
+  <si>
+    <t>spell_desc_30201</t>
+  </si>
+  <si>
+    <t>증기+물</t>
+  </si>
+  <si>
+    <t>spell_name_30202</t>
+  </si>
+  <si>
+    <t>spell_desc_30202</t>
+  </si>
+  <si>
+    <t>spell_name_30301</t>
+  </si>
+  <si>
+    <t>spell_desc_30301</t>
+  </si>
+  <si>
+    <t>spell_name_30302</t>
+  </si>
+  <si>
+    <t>spell_desc_30302</t>
+  </si>
+  <si>
+    <t>spell_name_30401</t>
+  </si>
+  <si>
+    <t>spell_desc_30401</t>
+  </si>
+  <si>
+    <t>spell_name_30402</t>
+  </si>
+  <si>
+    <t>spell_desc_30402</t>
+  </si>
+  <si>
+    <t>spell_name_30501</t>
+  </si>
+  <si>
+    <t>spell_desc_30501</t>
+  </si>
+  <si>
+    <t>spell_name_30601</t>
+  </si>
+  <si>
+    <t>spell_desc_30601</t>
+  </si>
+  <si>
+    <t>spell_name_30602</t>
+  </si>
+  <si>
+    <t>spell_desc_30602</t>
+  </si>
+  <si>
+    <t>spell_name_30701</t>
+  </si>
+  <si>
+    <t>spell_desc_30701</t>
+  </si>
+  <si>
+    <t>spell_name_30702</t>
+  </si>
+  <si>
+    <t>spell_desc_30702</t>
+  </si>
+  <si>
+    <t>바람+공기</t>
+  </si>
+  <si>
+    <t>spell_name_30801</t>
+  </si>
+  <si>
+    <t>spell_desc_30801</t>
+  </si>
+  <si>
+    <t>모래+공기</t>
+  </si>
+  <si>
+    <t>spell_name_30901</t>
+  </si>
+  <si>
+    <t>spell_desc_30901</t>
+  </si>
+  <si>
+    <t>모래+흙</t>
+  </si>
+  <si>
+    <t>spell_name_30902</t>
+  </si>
+  <si>
+    <t>spell_desc_30902</t>
+  </si>
+  <si>
+    <t>바위+흙</t>
+  </si>
+  <si>
+    <t>spell_name_31001</t>
+  </si>
+  <si>
+    <t>spell_desc_31001</t>
+  </si>
+  <si>
+    <t>img_spell_01_temp</t>
+  </si>
+  <si>
+    <t>img_spell_02_temp</t>
+  </si>
+  <si>
+    <t>img_spell_03_temp</t>
+  </si>
+  <si>
+    <t>img_spell_04_temp</t>
+  </si>
+  <si>
+    <t>img_spell_05_temp</t>
+  </si>
+  <si>
+    <t>img_spell_06_temp</t>
+  </si>
+  <si>
+    <t>img_spell_07_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_08_temp</t>
+  </si>
+  <si>
+    <t>img_spell_09_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_10_temp</t>
+  </si>
+  <si>
+    <t>img_spell_12_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_11_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_13_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_14_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_15_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_16_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_17_temp</t>
+  </si>
+  <si>
+    <t>img_spell_18_temp</t>
+  </si>
+  <si>
+    <t>img_spell_19_temp</t>
+  </si>
+  <si>
+    <t>img_spell_20_temp</t>
+  </si>
+  <si>
+    <t>img_spell_24_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_04_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_21_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_22_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img_spell_23_temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진흙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대폭발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발+불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증기 폭발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증기+불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열풍+불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열풍+공기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍수+물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음+물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음+공기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진흙+물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진흙+흙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불꽃회오리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마그마</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -231,87 +582,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모래</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#구현여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불+불</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불+공기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불+물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불+흙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물+물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물+공기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물+흙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공기+공기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공기+흙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흙+흙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플라즈마</t>
+    <t>마그마+불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마그마+흙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 8 * 3회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(전체) 피해 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자신) 회복 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 5 * 2회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -319,541 +618,229 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>n턴 간 AP 가속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플라즈마+불</t>
-  </si>
-  <si>
-    <t>spell_name_30101</t>
-  </si>
-  <si>
-    <t>spell_desc_30101</t>
-  </si>
-  <si>
-    <t>증기+불</t>
-  </si>
-  <si>
-    <t>spell_name_30201</t>
-  </si>
-  <si>
-    <t>spell_desc_30201</t>
-  </si>
-  <si>
-    <t>증기+물</t>
-  </si>
-  <si>
-    <t>spell_name_30202</t>
-  </si>
-  <si>
-    <t>spell_desc_30202</t>
-  </si>
-  <si>
-    <t>열+불</t>
-  </si>
-  <si>
-    <t>spell_name_30301</t>
-  </si>
-  <si>
-    <t>spell_desc_30301</t>
-  </si>
-  <si>
-    <t>열+공기</t>
-  </si>
-  <si>
-    <t>spell_name_30302</t>
-  </si>
-  <si>
-    <t>spell_desc_30302</t>
-  </si>
-  <si>
-    <t>용암+불</t>
-  </si>
-  <si>
-    <t>spell_name_30401</t>
-  </si>
-  <si>
-    <t>spell_desc_30401</t>
-  </si>
-  <si>
-    <t>용암+흙</t>
-  </si>
-  <si>
-    <t>spell_name_30402</t>
-  </si>
-  <si>
-    <t>spell_desc_30402</t>
-  </si>
-  <si>
-    <t>바다+물</t>
-  </si>
-  <si>
-    <t>spell_name_30501</t>
-  </si>
-  <si>
-    <t>spell_desc_30501</t>
-  </si>
-  <si>
-    <t>구름+물</t>
-  </si>
-  <si>
-    <t>spell_name_30601</t>
-  </si>
-  <si>
-    <t>spell_desc_30601</t>
-  </si>
-  <si>
-    <t>구름+공기</t>
-  </si>
-  <si>
-    <t>spell_name_30602</t>
-  </si>
-  <si>
-    <t>spell_desc_30602</t>
-  </si>
-  <si>
-    <t>풀+물</t>
-  </si>
-  <si>
-    <t>spell_name_30701</t>
-  </si>
-  <si>
-    <t>spell_desc_30701</t>
-  </si>
-  <si>
-    <t>풀+흙</t>
-  </si>
-  <si>
-    <t>spell_name_30702</t>
-  </si>
-  <si>
-    <t>spell_desc_30702</t>
-  </si>
-  <si>
-    <t>바람+공기</t>
-  </si>
-  <si>
-    <t>spell_name_30801</t>
-  </si>
-  <si>
-    <t>spell_desc_30801</t>
-  </si>
-  <si>
-    <t>모래+공기</t>
-  </si>
-  <si>
-    <t>spell_name_30901</t>
-  </si>
-  <si>
-    <t>spell_desc_30901</t>
-  </si>
-  <si>
-    <t>모래+흙</t>
-  </si>
-  <si>
-    <t>spell_name_30902</t>
-  </si>
-  <si>
-    <t>spell_desc_30902</t>
-  </si>
-  <si>
-    <t>바위+흙</t>
-  </si>
-  <si>
-    <t>spell_name_31001</t>
-  </si>
-  <si>
-    <t>spell_desc_31001</t>
-  </si>
-  <si>
-    <t>붉은 플라즈마</t>
-  </si>
-  <si>
-    <t>붉은 증기</t>
-  </si>
-  <si>
-    <t>푸른 증기</t>
-  </si>
-  <si>
-    <t>붉은 열</t>
-  </si>
-  <si>
-    <t>하얀 열</t>
-  </si>
-  <si>
-    <t>붉은 용암</t>
-  </si>
-  <si>
-    <t>어두운 용암</t>
-  </si>
-  <si>
-    <t>푸른 바다</t>
-  </si>
-  <si>
-    <t>푸른 구름</t>
-  </si>
-  <si>
-    <t>하얀 구름</t>
-  </si>
-  <si>
-    <t>푸른 풀</t>
-  </si>
-  <si>
-    <t>어두운 풀</t>
-  </si>
-  <si>
-    <t>하얀 바람</t>
-  </si>
-  <si>
-    <t>하얀 모래</t>
-  </si>
-  <si>
-    <t>어두운 모래</t>
-  </si>
-  <si>
-    <t>어두운 바위</t>
-  </si>
-  <si>
-    <t>대미지 타입 효과 (+5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어도 (+4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 감소 (-10) + 대미지 타입 효과 (+8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30310,10108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30204</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10108,20102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30206,10107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어도 (+6) + 대미지 타입 효과 (+7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30403</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP 증가_지속 (미구현)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 회복 효과_지속 (+3/3턴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30320,10108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 감소 (-20) + 대미지 타입 효과 (+8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30310,10115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 감소 (-10) + 대미지 타입 효과 (+15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어도 (+6) + 대미지 타입 효과 (+15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30206,10115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어도 (+12) + 대미지 타입 효과 (+7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30212,10107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프 해제 (+1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디버프 해제 (+3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#30601</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#30602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20203,10205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 회복 효과_지속 (+2/3턴) + 체력 회복 (+5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 회복 효과_지속 (+4/3턴) + 방어도 (+6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20204,30206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기절</t>
-  </si>
-  <si>
-    <t>31000</t>
-  </si>
-  <si>
-    <t>행동 무효화 (3턴) + 방어도 (+10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30803,30210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_spell_01_temp</t>
-  </si>
-  <si>
-    <t>img_spell_02_temp</t>
-  </si>
-  <si>
-    <t>img_spell_03_temp</t>
-  </si>
-  <si>
-    <t>img_spell_04_temp</t>
-  </si>
-  <si>
-    <t>img_spell_05_temp</t>
-  </si>
-  <si>
-    <t>img_spell_06_temp</t>
-  </si>
-  <si>
-    <t>img_spell_07_temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_spell_08_temp</t>
-  </si>
-  <si>
-    <t>img_spell_09_temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_spell_10_temp</t>
-  </si>
-  <si>
-    <t>img_spell_12_temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_spell_11_temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신 AP 1감소 or 적 AP 1증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어도 감소 (-7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#20105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어도 감소 (-10) + (자신 AP 2감소 or 적 AP 2증가) → 추후 40800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(자신 AP 3감소 or 적 AP 3증가) + 대미지 타입 효과 (+15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(자신 AP 5감소 or 적 AP 5증가) + 대미지 타입 효과 (+7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#30501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#30901</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#30801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#30902</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대미지 타입 효과 (+8) + 지속 피해 (+2/3턴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30220</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어도 (+20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대미지 타입 효과 (+25)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어도 (+10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(자신 AP 1감소 or 적 AP 1증가) * 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(자신 AP 2감소 or 적 AP 2증가) + 대미지 타입 효과 (+7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자신 AP 3감소 or 적 AP 3증가 → 추후 30803</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_spell_13_temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_spell_14_temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_spell_15_temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_spell_16_temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_spell_17_temp</t>
-  </si>
-  <si>
-    <t>img_spell_18_temp</t>
-  </si>
-  <si>
-    <t>img_spell_19_temp</t>
-  </si>
-  <si>
-    <t>img_spell_20_temp</t>
-  </si>
-  <si>
-    <t>img_spell_24_temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_spell_04_temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_spell_21_temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_spell_22_temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_spell_23_temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30601,30701</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30602,30702,10107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30603,30703</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30601,30601,30701,30701</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30603,30703,10115</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30605,30705,10107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30310,30602,30702</t>
+    <t>빙하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자신) 회복 20 + 회복 전 체력이 30% 미만이라면, 추가 회복 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래지옥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 30의 피해 + AP 2 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수렁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 10 + (자신) 회피 1 (=모든 피해 무효화하고 1스택 제거)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 15 + (자신) 회복 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자신) 회복 15 + (전체) 초과된 회복량만큼 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 20 + (자신) 피해량에 비례하여 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태양풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10206</t>
+  </si>
+  <si>
+    <t>10105,10105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30208</t>
+  </si>
+  <si>
+    <t>10120,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10320</t>
+  </si>
+  <si>
+    <t>10120,30210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10207,20203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10115,10209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10108,10108,10108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10110,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자신) 회피 1 + 피해량의 일부 회복 (최대 15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 20 + 3AP간 대상 피해량 25% 감소</t>
+  </si>
+  <si>
+    <t>(자신) 회복 7 + 3AP간 매AP 3의 추가 회복</t>
+  </si>
+  <si>
+    <t>(전체) 피해 30 + 3AP간 매AP 5의 추가 피해</t>
+  </si>
+  <si>
+    <t>(단일) 5AP간 매AP 10의 피해</t>
+  </si>
+  <si>
+    <t>10150,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10130,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10330,20305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20410</t>
+  </si>
+  <si>
+    <t>20405,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 30 + 3AP간 대상 주는 피해량 25% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 20 + 5AP간 대상 주는 피해량 50% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10120,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10220,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10215,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30220,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30225,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10130,30602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30220,30401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,30210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자신) 방어도 8</t>
+  </si>
+  <si>
+    <t>(단일) 피해 20 + 자신 방어도 10</t>
+  </si>
+  <si>
+    <t>(단일) 5AP간 매AP 5의 피해 + (자신) 5AP간 매AP 5의 방어도</t>
+  </si>
+  <si>
+    <t>(자신) 방어도 20 + 깨지지 않는 상태로 피격 시, 대상 AP 1 증가</t>
+  </si>
+  <si>
+    <t>(자신) 방어도 25 + 방어도 깨지지 않은 상태로 3AP 지나면 추가 방어도 15</t>
+  </si>
+  <si>
+    <t>(전체) 자신 방어도를 0으로 만든 후, 자신 방어도 수치만큼 피해 + 방어도 10</t>
+  </si>
+  <si>
+    <t>(단일) 피해 15 + 3AP간 매AP 5의 추가 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10115,20105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10310,10310,10310,10310,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20410,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자신) 방어도 20 + 디버프 해제 1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 50 + 이번 전투동안 피해량 3 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(전체) 피해 10 * 4회 + 적 처치마다 (전체) 피해 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 30 + 다음 행동 시까지 받는 피해량 25% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(전체) 3AP간 매AP 10의 피해 + (자신) 2AP간 매AP 회피 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1298,27 +1285,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="6.875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="3" customWidth="1"/>
-    <col min="4" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="3" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="3" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="14" customWidth="1"/>
     <col min="10" max="10" width="33.375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -1350,10 +1337,10 @@
         <v>16</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1361,7 +1348,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>10</v>
@@ -1382,10 +1369,10 @@
         <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1411,7 +1398,7 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>10101</v>
       </c>
@@ -1419,12 +1406,12 @@
         <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>25</v>
@@ -1433,16 +1420,16 @@
         <v>29</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>10102</v>
       </c>
@@ -1450,12 +1437,12 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>26</v>
@@ -1464,13 +1451,13 @@
         <v>30</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>10103</v>
       </c>
@@ -1478,12 +1465,12 @@
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>27</v>
@@ -1492,16 +1479,16 @@
         <v>31</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>10104</v>
       </c>
@@ -1509,12 +1496,12 @@
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>28</v>
@@ -1523,28 +1510,28 @@
         <v>32</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>144</v>
+        <v>210</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>20101</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>52</v>
@@ -1553,13 +1540,14 @@
         <v>42</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>150</v>
+        <v>217</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>20102</v>
       </c>
@@ -1567,11 +1555,11 @@
         <v>53</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>33</v>
@@ -1580,28 +1568,29 @@
         <v>43</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>20103</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>34</v>
@@ -1609,26 +1598,27 @@
       <c r="H10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>226</v>
+      <c r="I10" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>20104</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>35</v>
@@ -1636,29 +1626,29 @@
       <c r="H11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="14" t="s">
-        <v>151</v>
+      <c r="I11" s="13" t="s">
+        <v>184</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>152</v>
+        <v>211</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>194</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>20105</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>36</v>
@@ -1667,25 +1657,25 @@
         <v>46</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>20106</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>212</v>
+        <v>121</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>37</v>
@@ -1694,25 +1684,26 @@
         <v>47</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>20107</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>38</v>
@@ -1721,28 +1712,29 @@
         <v>48</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>20108</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>220</v>
+        <v>129</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>39</v>
@@ -1751,25 +1743,25 @@
         <v>49</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>20109</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>188</v>
+        <v>118</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>40</v>
@@ -1778,25 +1770,25 @@
         <v>50</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>20110</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>41</v>
@@ -1808,403 +1800,411 @@
         <v>208</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>30101</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>213</v>
+        <v>122</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>30201</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>214</v>
+        <v>123</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>30202</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>215</v>
+        <v>124</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>30301</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>216</v>
+        <v>125</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>229</v>
+        <v>80</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>30302</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>230</v>
+        <v>82</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>30401</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>218</v>
+        <v>127</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>30402</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="I24" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>30501</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>30601</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
+      </c>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>30602</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>30701</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>222</v>
+        <v>131</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>30702</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>30801</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>199</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>30901</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>201</v>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>30902</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>221</v>
+        <v>130</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -2212,25 +2212,25 @@
         <v>31001</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>204</v>
+        <v>209</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/spell.xlsx
+++ b/GameData/Excel/spell.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A73B5B-1C1E-4E6F-A29C-A65963DAA5D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600EB510-F3E2-4625-8984-3F96B53A6055}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11295" yWindow="3720" windowWidth="26520" windowHeight="18270" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="227">
   <si>
     <t>string</t>
   </si>
@@ -594,26 +594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(단일) 피해 8 * 3회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(전체) 피해 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(단일) 피해 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(자신) 회복 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(단일) 피해 5 * 2회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>바다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -626,18 +606,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(자신) 회복 20 + 회복 전 체력이 30% 미만이라면, 추가 회복 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모래지옥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(단일) 30의 피해 + AP 2 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수렁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -646,22 +618,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(단일) 피해 10 + (자신) 회피 1 (=모든 피해 무효화하고 1스택 제거)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(단일) 피해 15 + (자신) 회복 9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(자신) 회복 15 + (전체) 초과된 회복량만큼 피해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(단일) 피해 20 + (자신) 피해량에 비례하여 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>땅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -670,106 +626,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10206</t>
-  </si>
-  <si>
-    <t>10105,10105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30208</t>
-  </si>
-  <si>
-    <t>10120,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10320</t>
-  </si>
-  <si>
-    <t>10120,30210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10207,20203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10115,10209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10108,10108,10108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10110,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(자신) 회피 1 + 피해량의 일부 회복 (최대 15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(단일) 피해 20 + 3AP간 대상 피해량 25% 감소</t>
-  </si>
-  <si>
-    <t>(자신) 회복 7 + 3AP간 매AP 3의 추가 회복</t>
-  </si>
-  <si>
-    <t>(전체) 피해 30 + 3AP간 매AP 5의 추가 피해</t>
-  </si>
-  <si>
     <t>(단일) 5AP간 매AP 10의 피해</t>
   </si>
   <si>
-    <t>10150,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10130,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10330,20305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20410</t>
   </si>
   <si>
-    <t>20405,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(단일) 피해 30 + 3AP간 대상 주는 피해량 25% 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(단일) 피해 20 + 5AP간 대상 주는 피해량 50% 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10120,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10220,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10215,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30220,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -778,69 +644,222 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10130,30602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30220,30401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,30210</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(자신) 방어도 8</t>
-  </si>
-  <si>
-    <t>(단일) 피해 20 + 자신 방어도 10</t>
-  </si>
-  <si>
-    <t>(단일) 5AP간 매AP 5의 피해 + (자신) 5AP간 매AP 5의 방어도</t>
-  </si>
-  <si>
-    <t>(자신) 방어도 20 + 깨지지 않는 상태로 피격 시, 대상 AP 1 증가</t>
-  </si>
-  <si>
-    <t>(자신) 방어도 25 + 방어도 깨지지 않은 상태로 3AP 지나면 추가 방어도 15</t>
-  </si>
-  <si>
-    <t>(전체) 자신 방어도를 0으로 만든 후, 자신 방어도 수치만큼 피해 + 방어도 10</t>
-  </si>
-  <si>
-    <t>(단일) 피해 15 + 3AP간 매AP 5의 추가 피해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10115,20105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10310,10310,10310,10310,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20410,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(자신) 방어도 20 + 디버프 해제 1개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(단일) 피해 50 + 이번 전투동안 피해량 3 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(전체) 피해 10 * 4회 + 적 처치마다 (전체) 피해 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(단일) 피해 30 + 다음 행동 시까지 받는 피해량 25% 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(전체) 3AP간 매AP 10의 피해 + (자신) 2AP간 매AP 회피 1</t>
+    <t>10105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 2 * 2회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102,10102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10110,20102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 10 + 3AP간 매AP 2의 추가 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(전체) 피해 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자신) 회복 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자신) 방어도 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10107,30206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자신) 회복 6 + 3AP간 매AP 1의 추가 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10206,20201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 3 * 2회 + (자신) 회복 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10103,10103,10205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 4 * 3회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10104,10104,10104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자신) 받은 피해량의 일부 회복 (30%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33230</t>
+  </si>
+  <si>
+    <t>10120,31501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 20 + 이번 전투동안 피해량 1 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 7 + (자신) 방어도 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자신) 방어도 10 + 디버프 해제 1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30210,30401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 5 + 3AP(현재 무한)간 대상 주는 피해량 10% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10105,31810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 15 + 3AP(현재 무한)간 대상 주는 피해량 20% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10115,31820</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 5 + 5AP(현재 무한)간 대상 주는 피해량 30% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10105,31830</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 20 + 다음 행동 시(현재 무한)까지 받는 피해량 20% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10120,31320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(전체) 피해 15 + 3AP간 매AP 5의 추가 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10315,20305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 3AP간 매AP 10의 피해 + (자신) 3AP간 매AP 10의 방어도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20110,30110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자신) 회복 15 + (전체) 초과된 회복량 30% 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10215,33330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 10 + (자신) 받는 피해량 10% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10110,32010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10115,30602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 15 + AP 2 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(전체) 3AP간 매AP 7의 피해 + (자신) 받는 피해량 20% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20407,32020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(전체) 피해 10 * 4회 + 적 처치마다 (전체) 피해 10 (미구현)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(전체) 자신 방어도를 0으로 만든 후, 자신 방어도 수치만큼 피해 (미구현) + 방어도 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자신) 방어도 25 + 방어도 깨지지 않은 상태로 3AP 지나면 추가 방어도 15 (미구현)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자신) 방어도 20 + 깨지지 않는 상태로 피격 시, 대상 AP 1 증가 (미구현)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자신) 회복 20 + 회복 전 체력이 30% 미만이라면, 추가 회복 10 (미구현)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(단일) 피해 20 + (자신) 피해량에 비례하여 회복 (30%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10120,33430</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1288,8 +1307,8 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1420,10 +1439,10 @@
         <v>29</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>58</v>
@@ -1451,10 +1470,10 @@
         <v>30</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1479,10 +1498,10 @@
         <v>31</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>58</v>
@@ -1510,10 +1529,10 @@
         <v>32</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>58</v>
@@ -1540,10 +1559,10 @@
         <v>42</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="L8" s="1"/>
     </row>
@@ -1568,10 +1587,10 @@
         <v>43</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>58</v>
@@ -1599,10 +1618,10 @@
         <v>44</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="L10" s="1"/>
     </row>
@@ -1627,10 +1646,10 @@
         <v>45</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>58</v>
@@ -1657,10 +1676,10 @@
         <v>46</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1684,10 +1703,10 @@
         <v>47</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -1712,10 +1731,10 @@
         <v>48</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>58</v>
@@ -1743,10 +1762,10 @@
         <v>49</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1770,10 +1789,10 @@
         <v>50</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1797,10 +1816,10 @@
         <v>51</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1828,7 +1847,7 @@
         <v>195</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1853,10 +1872,10 @@
         <v>75</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L19" s="1"/>
     </row>
@@ -1882,10 +1901,10 @@
         <v>78</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L20" s="1"/>
     </row>
@@ -1894,7 +1913,7 @@
         <v>30301</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>144</v>
@@ -1909,10 +1928,10 @@
         <v>80</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="L21" s="1"/>
     </row>
@@ -1936,10 +1955,10 @@
         <v>82</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="L22" s="1"/>
     </row>
@@ -1963,10 +1982,10 @@
         <v>84</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1989,10 +2008,10 @@
         <v>86</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -2000,7 +2019,7 @@
         <v>30501</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>146</v>
@@ -2015,10 +2034,10 @@
         <v>88</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -2026,7 +2045,7 @@
         <v>30601</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>147</v>
@@ -2041,10 +2060,10 @@
         <v>90</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="L26" s="1"/>
     </row>
@@ -2053,7 +2072,7 @@
         <v>30602</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>148</v>
@@ -2068,10 +2087,10 @@
         <v>92</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -2080,7 +2099,7 @@
         <v>30701</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>149</v>
@@ -2095,10 +2114,10 @@
         <v>94</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="L28" s="1"/>
     </row>
@@ -2107,7 +2126,7 @@
         <v>30702</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>150</v>
@@ -2122,10 +2141,10 @@
         <v>96</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="L29" s="1"/>
     </row>
@@ -2149,10 +2168,10 @@
         <v>99</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -2178,7 +2197,7 @@
         <v>219</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -2186,7 +2205,7 @@
         <v>30902</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>103</v>
@@ -2201,10 +2220,10 @@
         <v>105</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -2212,7 +2231,7 @@
         <v>31001</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>106</v>
@@ -2227,10 +2246,10 @@
         <v>108</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
